--- a/outputs/users.xlsx
+++ b/outputs/users.xlsx
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PTa</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G65"/>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ESa</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G95"/>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G99"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">PT e PT </t>
+          <t xml:space="preserve">PT </t>
         </is>
       </c>
       <c r="G137"/>
@@ -5701,7 +5701,7 @@
       <c r="E139"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G139"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">COa </t>
+          <t xml:space="preserve">CO </t>
         </is>
       </c>
       <c r="G158"/>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">  BR</t>
+          <t xml:space="preserve"> BR</t>
         </is>
       </c>
       <c r="G163"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G178"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>BR.</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G189"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>COs</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G204"/>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>COs</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G205"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BR </t>
+          <t xml:space="preserve">BR </t>
         </is>
       </c>
       <c r="G256"/>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G276"/>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESa </t>
+          <t xml:space="preserve">ES </t>
         </is>
       </c>
       <c r="G279"/>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">COs </t>
+          <t xml:space="preserve">CO </t>
         </is>
       </c>
       <c r="G282"/>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>COa</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G310"/>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Hong  Kong</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G340"/>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>BR BR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G360"/>
